--- a/data/income_statement/2digits/size/27_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/27_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>27-Manufacture of electrical equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>27-Manufacture of electrical equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>443169.78672</v>
+        <v>486623.91437</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>459795.1001099999</v>
+        <v>506187.61069</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>550882.95424</v>
+        <v>598865.47172</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>565025.90269</v>
+        <v>619752.97571</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>576691.29016</v>
+        <v>646896.8015299999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>610763.69372</v>
+        <v>696402.6819399999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>622088.49161</v>
+        <v>727572.73248</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>632201.73443</v>
+        <v>776053.30939</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>710735.171</v>
+        <v>858260.05273</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1970074.25575</v>
+        <v>2168701.42666</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2019534.96987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2342382.48709</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2665540.206</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>411938.5451</v>
+        <v>450607.79514</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>426740.2486899999</v>
+        <v>468769.04122</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>507230.08049</v>
+        <v>550455.0850799999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>505106.15012</v>
+        <v>554500.0249200001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>529705.0326599999</v>
+        <v>591031.95812</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>553298.12074</v>
+        <v>630053.27379</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>581838.46695</v>
+        <v>675246.34026</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>574730.4331499999</v>
+        <v>702551.0014200001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>656739.84772</v>
+        <v>788266.0534100001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1782614.83244</v>
+        <v>1961941.43101</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1808306.95895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2098601.87732</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2367497.013</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>26208.08465</v>
+        <v>29915.859</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>28102.82471</v>
+        <v>31408.00231</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>36380.40023000001</v>
+        <v>39585.98023</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>54170.24235</v>
+        <v>57228.76643000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>41101.67149</v>
+        <v>46459.23034999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>50103.97816</v>
+        <v>56598.69210000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>33161.68182</v>
+        <v>41948.39445</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>47843.72568999999</v>
+        <v>59729.2878</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>45153.25984000001</v>
+        <v>56573.88067</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>164499.74443</v>
+        <v>178112.94939</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>184910.70638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>209953.14391</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>261415.164</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5023.15697</v>
+        <v>6100.260230000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4952.02671</v>
+        <v>6010.567160000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7272.47352</v>
+        <v>8824.40641</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5749.51022</v>
+        <v>8024.18436</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5884.586009999999</v>
+        <v>9405.61306</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7361.59482</v>
+        <v>9750.716050000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>7088.34284</v>
+        <v>10377.99777</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9627.57559</v>
+        <v>13773.02017</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8842.06344</v>
+        <v>13420.11865</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>22959.67888</v>
+        <v>28647.04626</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>26317.30454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>33827.46586</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>36628.029</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5699.89041</v>
+        <v>7771.37691</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6627.0099</v>
+        <v>7500.63101</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>7254.14351</v>
+        <v>8798.062440000002</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6186.24467</v>
+        <v>7372.32223</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6248.00332</v>
+        <v>7606.19495</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6081.767529999999</v>
+        <v>8169.066650000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4736.737819999999</v>
+        <v>5653.19299</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4426.071809999999</v>
+        <v>8116.07315</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6164.251869999999</v>
+        <v>7106.851830000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>14752.56002</v>
+        <v>17560.97414</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>20342.05057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23821.15823</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>42802.132</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4554.11338</v>
+        <v>5744.18604</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3959.32974</v>
+        <v>4704.576760000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5173.200609999999</v>
+        <v>6057.30735</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4549.20047</v>
+        <v>5287.03177</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3881.53012</v>
+        <v>5029.11642</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3635.67258</v>
+        <v>5400.006640000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4125.44872</v>
+        <v>4948.596840000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4128.10046</v>
+        <v>7229.22281</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5725.01679</v>
+        <v>6463.634999999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>13374.49463</v>
+        <v>15736.2828</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>15124.89032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18139.24757</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>38960.314</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1046.18729</v>
+        <v>1887.94812</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2494.69122</v>
+        <v>2590.48977</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1951.63053</v>
+        <v>2457.49255</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1423.1665</v>
+        <v>1868.67929</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2117.67589</v>
+        <v>2314.32607</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2248.89382</v>
+        <v>2508.67686</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>476.79789</v>
+        <v>542.79363</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>204.45261</v>
+        <v>764.34302</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>302.04034</v>
+        <v>467.97213</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>798.12317</v>
+        <v>1221.86678</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4854.578509999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5215.131270000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3012.335</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>99.58974000000001</v>
+        <v>139.24275</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>172.98894</v>
+        <v>205.56448</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>129.31237</v>
+        <v>283.2625400000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>213.8777</v>
+        <v>216.61117</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>248.79731</v>
+        <v>262.75246</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>197.20113</v>
+        <v>260.3831499999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>134.49121</v>
+        <v>161.80252</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>93.51874000000001</v>
+        <v>122.50732</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>137.19474</v>
+        <v>175.2447</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>579.94222</v>
+        <v>602.82456</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>362.5817399999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>466.77939</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>829.4829999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>437469.89631</v>
+        <v>478852.53746</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>453168.0902100001</v>
+        <v>498686.97968</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>543628.81073</v>
+        <v>590067.40928</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>558839.65802</v>
+        <v>612380.65348</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>570443.2868400001</v>
+        <v>639290.60658</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>604681.92619</v>
+        <v>688233.6152900001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>617351.75379</v>
+        <v>721919.53949</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>627775.66262</v>
+        <v>767937.23624</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>704570.9191300002</v>
+        <v>851153.2008999998</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1955321.69573</v>
+        <v>2151140.45252</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1999192.9193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2318561.32886</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2622738.074</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>354631.59685</v>
+        <v>387332.65875</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>362920.75898</v>
+        <v>397999.04846</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>439668.5075</v>
+        <v>475641.02973</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>445276.1499500001</v>
+        <v>486637.54354</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>469089.57791</v>
+        <v>521224.7101900001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>484511.61392</v>
+        <v>547687.71232</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>496751.2212599999</v>
+        <v>576814.72246</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>504630.07468</v>
+        <v>611097.8007500001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>577248.4175</v>
+        <v>686985.3924700001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1641001.8633</v>
+        <v>1801353.66121</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1636932.58067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1890575.66167</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2162857.07</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>174633.93591</v>
+        <v>194596.06719</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>181358.90492</v>
+        <v>202027.9977</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>204597.04239</v>
+        <v>223104.49315</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>226387.08142</v>
+        <v>248381.49947</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>235535.32744</v>
+        <v>267038.51955</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>233290.1525</v>
+        <v>277123.7569</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>242567.26489</v>
+        <v>287755.8989799999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>248192.32142</v>
+        <v>308343.34558</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>276255.24817</v>
+        <v>340087.03867</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>831957.4632700001</v>
+        <v>903436.57596</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>826078.0856799999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>952077.8147100001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1024266.8</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>152715.8144</v>
+        <v>163820.42023</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>142586.19402</v>
+        <v>152651.91191</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>189842.89667</v>
+        <v>202749.04263</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>178736.01119</v>
+        <v>195682.18026</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>186831.77217</v>
+        <v>202779.2785</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>206099.87266</v>
+        <v>221654.06231</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>188802.90205</v>
+        <v>214148.81988</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>201106.35363</v>
+        <v>236177.46081</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>238801.51659</v>
+        <v>270665.99496</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>672992.3171900001</v>
+        <v>746659.9679100001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>621615.6715100001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>720110.95777</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>946198.434</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>26440.66938</v>
+        <v>28061.5801</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>38273.78273</v>
+        <v>42288.56842</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>42470.09908</v>
+        <v>45541.94863000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>39857.4568</v>
+        <v>42268.23264</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>45915.79644</v>
+        <v>49621.96943</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>44525.38912000001</v>
+        <v>48011.32356</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>62889.6189</v>
+        <v>71137.24075</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>52685.87872</v>
+        <v>62341.76621</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>60475.88421</v>
+        <v>72332.25154</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>127190.32722</v>
+        <v>141819.87497</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>180007.61956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>207718.43367</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>184511.385</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>841.1771600000002</v>
+        <v>854.59123</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>701.87731</v>
+        <v>1030.57043</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2758.46936</v>
+        <v>4245.54532</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>295.60054</v>
+        <v>305.6311700000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>806.68186</v>
+        <v>1784.94271</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>596.1996399999999</v>
+        <v>898.56955</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2491.43542</v>
+        <v>3772.76285</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2645.52091</v>
+        <v>4235.228149999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1715.76853</v>
+        <v>3900.1073</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>8861.75562</v>
+        <v>9437.242370000002</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9231.20392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10668.45552</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7880.451</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>82838.29946000001</v>
+        <v>91519.87871</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>90247.33123000001</v>
+        <v>100687.93122</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>103960.30323</v>
+        <v>114426.37955</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>113563.50807</v>
+        <v>125743.10994</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>101353.70893</v>
+        <v>118065.89639</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>120170.31227</v>
+        <v>140545.90297</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>120600.53253</v>
+        <v>145104.81703</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>123145.58794</v>
+        <v>156839.43549</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>127322.50163</v>
+        <v>164167.80843</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>314319.83243</v>
+        <v>349786.79131</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>362260.33863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>427985.6671899999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>459881.004</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>70473.87015</v>
+        <v>81812.9887</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>77521.55125</v>
+        <v>90722.01831</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>89663.58120999999</v>
+        <v>101385.22268</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>94862.93358</v>
+        <v>110889.67782</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>94553.99575</v>
+        <v>116556.28096</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>99737.87506000001</v>
+        <v>125604.78362</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>105583.77142</v>
+        <v>132298.67228</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>113381.90268</v>
+        <v>150247.2787</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>114696.32085</v>
+        <v>156180.02356</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>253793.39093</v>
+        <v>301113.64956</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>292876.60166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>357124.82284</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>374130.6</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>367.45941</v>
+        <v>470.15114</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>507.50123</v>
+        <v>596.2117099999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>821.8279</v>
+        <v>851.8654799999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1256.05955</v>
+        <v>1294.05955</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1347.07178</v>
+        <v>1530.98627</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1137.58519</v>
+        <v>1203.51234</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1574.44969</v>
+        <v>2202.10408</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1935.67506</v>
+        <v>2038.92736</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1107.70122</v>
+        <v>1420.33488</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2582.80851</v>
+        <v>2637.17341</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5225.06223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5371.98369</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>12182.471</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>10343.49982</v>
+        <v>11761.43932</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>12023.63713</v>
+        <v>13636.97948</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>16915.14884</v>
+        <v>18258.72591</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>17945.04941</v>
+        <v>19757.78342</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>15675.03468</v>
+        <v>18057.87762</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>18058.78468</v>
+        <v>23474.5464</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14968.21349</v>
+        <v>18106.55349</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>16937.56263</v>
+        <v>22851.42626</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>17931.03507</v>
+        <v>22281.87711</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>45053.86791</v>
+        <v>49358.09278</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>49012.90086</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>59707.7586</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>60928.471</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>59762.91091999999</v>
+        <v>69581.39824000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>64990.41289</v>
+        <v>76488.82712</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>71926.60447000001</v>
+        <v>82274.63128999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>75661.82462</v>
+        <v>89837.83485000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>77531.88929000001</v>
+        <v>96967.41707000002</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>80541.50519000001</v>
+        <v>100926.72488</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>89041.10824000002</v>
+        <v>111990.01471</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>94508.66498999999</v>
+        <v>125356.92508</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>95657.58456</v>
+        <v>132477.81157</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>206156.71451</v>
+        <v>249118.38337</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>238638.63857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>292045.08055</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>301019.658</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>12364.42931</v>
+        <v>9706.890009999997</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>12725.77998</v>
+        <v>9965.912910000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>14296.72202</v>
+        <v>13041.15687</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>18700.57449</v>
+        <v>14853.43212</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6799.713180000001</v>
+        <v>1509.61543</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>20432.43721</v>
+        <v>14941.11935</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>15016.76111</v>
+        <v>12806.14475</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9763.68526</v>
+        <v>6592.156790000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>12626.18078</v>
+        <v>7987.78487</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>60526.44149999999</v>
+        <v>48673.14175</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>69383.73697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>70860.84435000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>85750.40399999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3186.84491</v>
+        <v>19274.70409</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3681.71621</v>
+        <v>9367.802090000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3499.586040000001</v>
+        <v>23465.79093</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3256.51836</v>
+        <v>8313.678759999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3132.20326</v>
+        <v>17485.96298</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4003.92515</v>
+        <v>18939.04504</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3772.32634</v>
+        <v>43645.29749</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4305.721530000001</v>
+        <v>31867.49184</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3659.49669</v>
+        <v>31961.94233</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>26342.77063</v>
+        <v>84721.45518999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15594.30355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>70277.98607</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>68597.209</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4.9</v>
+        <v>336.40848</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>3.39263</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>27.76</v>
+        <v>133.96</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>188.54115</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>74.57505</v>
+        <v>592.66896</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>621.0711899999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>261.904</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>332.944</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>443.09348</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>2282.64287</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>53.67416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>105.57416</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>35.955</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1820,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>2469.72729</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>629.1831099999999</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1838,208 +1854,238 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>150.11159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>15718.7588</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>600.74339</v>
+        <v>3120.27394</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>410.91119</v>
+        <v>2702.37432</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>356.7535800000001</v>
+        <v>3280.70979</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>562.01821</v>
+        <v>1376.38729</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>263.01671</v>
+        <v>2195.3641</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>339.87929</v>
+        <v>1648.7543</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>409.3385000000001</v>
+        <v>3074.59294</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>360.1359200000001</v>
+        <v>2449.03345</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>299.7311400000001</v>
+        <v>2631.80243</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2242.25548</v>
+        <v>6236.4151</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2248.52399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9933.75094</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5882.334</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>85.31292999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>106.6632</v>
+        <v>240.43959</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>132.27978</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>17.4722</v>
+        <v>361.85759</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>30.95457</v>
+        <v>38.86332</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>558.51884</v>
+        <v>567.6502800000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0.291</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>133.97976</v>
+        <v>254.63448</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>39.39448</v>
+        <v>42.35449000000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>808.19894</v>
+        <v>972.25009</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>40.70054999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>8.164999999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>131.05737</v>
+        <v>146.58512</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>438.381</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>32.30539</v>
+        <v>8798.65789</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>58.97575999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>139.09438</v>
+        <v>141.57348</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1.69213</v>
+        <v>374.84536</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7.3798</v>
+        <v>8423.76239</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11.23315</v>
+        <v>7069.52941</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>264.22985</v>
+        <v>7322.52611</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>124.90986</v>
+        <v>7265.74843</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>128.32668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7210.385979999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1229.561</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>63.44978999999999</v>
+        <v>734.96547</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>49.53912</v>
+        <v>347.43066</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>159.46773</v>
+        <v>251.82412</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>126.4409</v>
+        <v>151.575</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>35.72996</v>
+        <v>107.12521</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>25.71546</v>
+        <v>29.81889</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>31.62497</v>
+        <v>45.67977</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>16.30234</v>
+        <v>36.82276</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>56.54351999999999</v>
+        <v>113.13218</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>159.45132</v>
+        <v>233.82203</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>114.77192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>158.74912</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>203.243</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1305.86974</v>
+        <v>10379.45711</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1173.14994</v>
+        <v>2842.78207</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1750.21269</v>
+        <v>8471.232260000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1195.06787</v>
+        <v>1929.84389</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1241.08374</v>
+        <v>12072.64419</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1444.83998</v>
+        <v>10136.58139</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1744.57908</v>
+        <v>28178.86634</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1665.83265</v>
+        <v>18022.01732</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1695.01603</v>
+        <v>16996.87503</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>19473.30719</v>
+        <v>60170.62625</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10467.75444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>29547.31029</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>52653.672</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1.5</v>
@@ -2054,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>2.84842</v>
+        <v>3.15242</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>1.82956</v>
@@ -2063,10 +2109,10 @@
         <v>1.67915</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>4.10504</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>52.91308</v>
+        <v>57.46034</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0.19506</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>50.759</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.20138</v>
@@ -2090,10 +2141,10 @@
         <v>2.195</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>30.56906</v>
+        <v>38.96114</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>14.11304</v>
+        <v>35.47745</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>4.23729</v>
@@ -2113,194 +2164,219 @@
       <c r="M34" s="48" t="n">
         <v>5.0853</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>993.8103100000001</v>
+        <v>4469.99966</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1489.32913</v>
+        <v>2782.65182</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1038.53991</v>
+        <v>2394.86013</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1265.97436</v>
+        <v>4207.53694</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1330.78739</v>
+        <v>2282.29385</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1627.2126</v>
+        <v>3084.52949</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1562.5284</v>
+        <v>3014.43335</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2088.59698</v>
+        <v>3668.76465</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1251.66859</v>
+        <v>4354.698270000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3534.45278</v>
+        <v>7559.75536</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2385.35492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7557.670929999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>8533.52</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6133.765649999999</v>
+        <v>21230.89919</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3707.12168</v>
+        <v>7412.49645</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3883.3796</v>
+        <v>30370.11108</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3164.77013</v>
+        <v>6091.28121</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1561.8584</v>
+        <v>20037.42601</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2901.8153</v>
+        <v>10823.75564</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2140.67745</v>
+        <v>23835.3672</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3566.10829</v>
+        <v>13856.5018</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2559.67288</v>
+        <v>17836.99959</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>21300.1196</v>
+        <v>58424.57047</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14055.33291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>33339.74501</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>59855.506</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>87.57285999999999</v>
+        <v>184.64218</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>177.79686</v>
+        <v>328.58268</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>64.82312</v>
+        <v>70.61139</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>131.07459</v>
+        <v>137.66812</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>121.73214</v>
+        <v>227.98176</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>48.87326</v>
+        <v>58.22667</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>175.94598</v>
+        <v>197.68876</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>128.98875</v>
+        <v>160.62758</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>204.07547</v>
+        <v>284.77884</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1216.81182</v>
+        <v>1264.02797</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2627.34753</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2702.87177</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1014.616</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4198.33941</v>
+        <v>11215.75686</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1759.39651</v>
+        <v>1835.35445</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1978.15579</v>
+        <v>11850.51006</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>487.26264</v>
+        <v>1172.16175</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>386.84897</v>
+        <v>735.4525500000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>313.3925599999999</v>
+        <v>477.5103100000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>237.40588</v>
+        <v>265.21914</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>364.78809</v>
+        <v>420.58263</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>684.30407</v>
+        <v>832.6579199999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1169.69165</v>
+        <v>2896.85632</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1479.22719</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1759.84534</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1386.62</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2.43479</v>
+        <v>408.26398</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>74.99303999999999</v>
+        <v>427.15769</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>22.40483</v>
+        <v>1243.7748</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>406.4255</v>
+        <v>406.44041</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.08172</v>
+        <v>15.36702</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>30.7911</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.1367</v>
+        <v>0.23991</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>0.56169</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>141.711</v>
+        <v>145.711</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>30.9175</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>53.74717</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>18.446</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1252.87259</v>
+        <v>8644.550730000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1119.01317</v>
+        <v>2809.84575</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1427.17234</v>
+        <v>16770.71916</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1214.09141</v>
+        <v>2549.06856</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>818.71531</v>
+        <v>18487.51852</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1176.32742</v>
+        <v>8488.514290000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1245.64085</v>
+        <v>19942.56028</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1203.18063</v>
+        <v>10940.79947</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1053.52318</v>
+        <v>15093.92093</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>17999.54006</v>
+        <v>53120.27125</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9147.429129999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>26318.61492</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>53234.194</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2375,10 +2461,10 @@
         <v>7.60768</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>6.761060000000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>1.25012</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0.5727000000000001</v>
@@ -2386,23 +2472,28 @@
       <c r="M41" s="48" t="n">
         <v>8.942200000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5.26054</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>17.67296</v>
+        <v>54.63596</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>33.54494</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>22.00174</v>
+        <v>36.16349</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>4.83429</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>1.0588</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>587.2854600000001</v>
+        <v>772.4249</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>558.21879</v>
+        <v>1956.88957</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>357.27858</v>
+        <v>400.95073</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>903.91425</v>
+        <v>1789.77888</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>228.17389</v>
+        <v>564.79979</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1329.28909</v>
+        <v>1765.5714</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>473.94036</v>
+        <v>3422.05143</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1869.15082</v>
+        <v>2327.16937</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>476.05916</v>
+        <v>1478.68078</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>882.5858700000001</v>
+        <v>1111.92473</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>737.5808900000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2494.66481</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4201.63</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4963.984820000001</v>
+        <v>17226.93338</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2547.832440000001</v>
+        <v>3448.02529</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3465.78304</v>
+        <v>9979.93843</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4475.57883</v>
+        <v>7616.209819999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3368.19088</v>
+        <v>6201.827500000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3825.98604</v>
+        <v>9612.399280000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4575.899020000001</v>
+        <v>9616.90466</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4277.15184</v>
+        <v>11325.80764</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4144.36615</v>
+        <v>15030.15082</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17916.73253</v>
+        <v>29746.54787000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19434.42894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>43142.66445</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>27504.748</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3831.06756</v>
+        <v>14500.77657</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2466.25119</v>
+        <v>3330.92435</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3342.86808</v>
+        <v>9737.27815</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4064.52655</v>
+        <v>7199.81525</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3218.12238</v>
+        <v>5931.372530000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3606.58301</v>
+        <v>9321.210509999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4282.67923</v>
+        <v>9129.78009</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4152.047430000001</v>
+        <v>11157.11546</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4056.46884</v>
+        <v>14701.92041</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17558.20683</v>
+        <v>28702.63234</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>18692.69769</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>42051.9787</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>26090.135</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1132.91726</v>
+        <v>2726.15681</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>81.58125</v>
+        <v>117.10094</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>122.91496</v>
+        <v>242.66028</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>411.05228</v>
+        <v>416.39457</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>150.0685</v>
+        <v>270.45497</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>219.40303</v>
+        <v>291.18877</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>293.21979</v>
+        <v>487.1245699999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>125.10441</v>
+        <v>168.69218</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>87.89731</v>
+        <v>328.23041</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>358.5257</v>
+        <v>1043.91553</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>741.73125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1090.68575</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1414.613</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4453.523750000001</v>
+        <v>-9476.238469999997</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>10152.54207</v>
+        <v>8473.19326</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>10447.14542</v>
+        <v>-3843.101709999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14316.74389</v>
+        <v>9459.619850000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5001.86716</v>
+        <v>-7243.6751</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>17708.56102</v>
+        <v>13444.00947</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>12072.51098</v>
+        <v>22999.17038</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6226.146660000001</v>
+        <v>13277.33919</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>9581.638439999999</v>
+        <v>7082.576789999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>47652.36</v>
+        <v>45223.47860000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>51488.27867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>64656.42096</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>66987.359</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2796.88044</v>
+        <v>3888.34101</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4967.8967</v>
+        <v>9646.120489999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3231.98632</v>
+        <v>38188.04928</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3231.28515</v>
+        <v>3757.53376</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3070.82721</v>
+        <v>42841.53681</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3198.08163</v>
+        <v>17269.62945</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3315.710729999999</v>
+        <v>45434.13707</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5193.23936</v>
+        <v>12091.60964</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5053.684240000001</v>
+        <v>11966.95187</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11725.89352</v>
+        <v>19520.28515</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>13450.46851</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>28099.28527</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>49192.072</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>65.79482</v>
+        <v>402.09568</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>29.89272</v>
+        <v>30.67772</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>14.69616</v>
+        <v>41.97165</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1.59892</v>
+        <v>3.38953</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>20.37193</v>
+        <v>24.85819</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>303.83657</v>
+        <v>413.6257900000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>14.85788</v>
+        <v>23.56995</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>30.52306</v>
+        <v>30.7012</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>18.96115</v>
+        <v>29.96115</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>102.29628</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>10.23653</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>10.5295</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>713.64</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2731.08562</v>
+        <v>3486.24533</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4938.00398</v>
+        <v>9615.44277</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3217.29016</v>
+        <v>38146.07763</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3229.68623</v>
+        <v>3754.14423</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3050.45528</v>
+        <v>42816.67862</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2894.24506</v>
+        <v>16856.00366</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3300.85285</v>
+        <v>45410.56712</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5162.7163</v>
+        <v>12060.90844</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5034.72309</v>
+        <v>11936.99072</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11623.59724</v>
+        <v>19417.98887</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>13440.23198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>28088.75577</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>48478.432</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3399.85384</v>
+        <v>21221.41279</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5308.011550000001</v>
+        <v>8733.654970000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>20523.16454</v>
+        <v>33635.0471</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8483.817449999999</v>
+        <v>13663.7888</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4239.9602</v>
+        <v>12976.40033</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12874.25492</v>
+        <v>21763.1508</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6217.806279999999</v>
+        <v>17434.90507</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>14158.02068</v>
+        <v>40886.46741</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>5697.0405</v>
+        <v>10417.32867</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>31239.16298</v>
+        <v>44780.16006</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>17378.58234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>28928.3325</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>32922.566</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>169.7672</v>
+        <v>7312.296359999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>163.21739</v>
+        <v>1103.74521</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>305.89414</v>
+        <v>7733.85988</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>103.56874</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>66.00416</v>
+        <v>5968.269840000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>31.70065</v>
+        <v>732.66948</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1681.12081</v>
+        <v>7364.997179999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>500.07497</v>
+        <v>5266.09876</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>953.41101</v>
+        <v>1585.12586</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>171.5022</v>
+        <v>2131.18503</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>186.3513</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>319.1095</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>210.809</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>198.85722</v>
+        <v>8343.55334</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>148.80858</v>
+        <v>251.34791</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>73.87273999999999</v>
+        <v>931.7477799999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>283.12668</v>
+        <v>328.98683</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>127.40943</v>
+        <v>563.1318600000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>119.67682</v>
+        <v>159.03666</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>196.39577</v>
+        <v>389.61369</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>213.52567</v>
+        <v>571.24806</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>94.49806</v>
+        <v>709.37814</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>283.31388</v>
+        <v>562.48541</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>392.04301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>407.5175600000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1513.301</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3031.22942</v>
+        <v>5565.56309</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4995.98558</v>
+        <v>7378.56185</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>20143.39766</v>
+        <v>24969.43944</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8097.12203</v>
+        <v>13231.23323</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4046.54661</v>
+        <v>6444.99863</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>12722.87745</v>
+        <v>20871.44466</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4340.2897</v>
+        <v>9680.294199999998</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13444.42004</v>
+        <v>35049.12059000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4649.131429999999</v>
+        <v>8122.82467</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>30784.3469</v>
+        <v>42086.48962</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16800.18803</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>28201.70544</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>31198.456</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3850.55035</v>
+        <v>-26809.31025</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>9812.427220000001</v>
+        <v>9385.658780000002</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-6844.032799999999</v>
+        <v>709.9004699999997</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>9064.211589999999</v>
+        <v>-446.6351900000004</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3832.73417</v>
+        <v>22621.46138</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>8032.387730000001</v>
+        <v>8950.48812</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>9170.415429999999</v>
+        <v>50998.40238</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-2738.63466</v>
+        <v>-15517.51858</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>8938.28218</v>
+        <v>8632.199990000003</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>28139.09053999999</v>
+        <v>19963.60369</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>47560.16484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>63827.37373</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>83256.86500000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3507.55819</v>
+        <v>4359.029509999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4025.15909</v>
+        <v>4788.406870000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4374.94568</v>
+        <v>5157.09615</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4914.00477</v>
+        <v>5429.989009999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4430.757509999999</v>
+        <v>6489.57029</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5593.9211</v>
+        <v>6616.384400000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5219.57998</v>
+        <v>9272.42792</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4959.2282</v>
+        <v>7668.61759</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4934.65245</v>
+        <v>7454.987419999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>17016.62964</v>
+        <v>21685.24418</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>16515.65635</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>21855.7452</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>26942.99</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>342.9921600000002</v>
+        <v>-31168.33976</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5787.268129999999</v>
+        <v>4597.25191</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-11218.97848</v>
+        <v>-4447.19568</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4150.206819999999</v>
+        <v>-5876.624199999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-598.0233400000003</v>
+        <v>16131.89109</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2438.46663</v>
+        <v>2334.10372</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3950.83545</v>
+        <v>41725.97446</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7697.862859999999</v>
+        <v>-23186.13617</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4003.62973</v>
+        <v>1177.21257</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>11122.4609</v>
+        <v>-1721.64049</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>31044.50849</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>41971.62853</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>56313.875</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1809</v>
+        <v>1930</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1846</v>
+        <v>1990</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1827</v>
+        <v>1990</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1760</v>
+        <v>1932</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1695</v>
+        <v>1899</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1660</v>
+        <v>1896</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1692</v>
+        <v>1980</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1741</v>
+        <v>2111</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1785</v>
+        <v>2174</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2266</v>
+        <v>2790</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3069</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>